--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\matthew\inquiry\MimickingAsymmetries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65FA0CCC-3B40-4CE0-82C8-E1DE82090B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B590C84-7B47-46B4-BDB9-E3D451375D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="705" windowWidth="21600" windowHeight="11835" xr2:uid="{A1739FAF-E3D4-4299-A71C-17973A7EB695}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{A1739FAF-E3D4-4299-A71C-17973A7EB695}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t># f_asym</t>
   </si>
@@ -90,6 +90,48 @@
   </si>
   <si>
     <t># N=25, d?</t>
+  </si>
+  <si>
+    <t># N=50, u bounds</t>
+  </si>
+  <si>
+    <t># N=50, t0 diff</t>
+  </si>
+  <si>
+    <t># N=50, t0 sigdiff</t>
+  </si>
+  <si>
+    <t># N=50, ITR</t>
+  </si>
+  <si>
+    <t># N=50, MMR</t>
+  </si>
+  <si>
+    <t># N=50, d?</t>
+  </si>
+  <si>
+    <t># N=100, u bounds</t>
+  </si>
+  <si>
+    <t># N=100, t0 diff</t>
+  </si>
+  <si>
+    <t># N=100, t0 sigdiff</t>
+  </si>
+  <si>
+    <t># N=100, ITR</t>
+  </si>
+  <si>
+    <t># N=100, MMR</t>
+  </si>
+  <si>
+    <t># N=100, d?</t>
+  </si>
+  <si>
+    <t>double check small N low f_asym significances</t>
+  </si>
+  <si>
+    <t>because I'd been ocmputing bayes factor wrong</t>
   </si>
 </sst>
 </file>
@@ -441,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135C6CFD-819F-4029-A8AC-D6E7456EED53}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,24 +502,26 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -517,8 +561,44 @@
       <c r="M4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -543,8 +623,59 @@
       <c r="H5">
         <v>0.447328</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>-2.8632000000000001E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.95</v>
+      </c>
+      <c r="K5">
+        <v>44</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O5">
+        <v>-2.7314999999999999E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.94</v>
+      </c>
+      <c r="Q5">
+        <v>37</v>
+      </c>
+      <c r="R5">
+        <v>9</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U5">
+        <v>-1.7082E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.19</v>
+      </c>
+      <c r="W5">
+        <v>39</v>
+      </c>
+      <c r="X5">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -569,8 +700,59 @@
       <c r="H6">
         <v>0.447328</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>-0.13749400000000001</v>
+      </c>
+      <c r="J6">
+        <v>9.43</v>
+      </c>
+      <c r="K6">
+        <v>43</v>
+      </c>
+      <c r="L6">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O6">
+        <v>-0.131719</v>
+      </c>
+      <c r="P6">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="Q6">
+        <v>36</v>
+      </c>
+      <c r="R6">
+        <v>13</v>
+      </c>
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U6">
+        <v>-0.118043</v>
+      </c>
+      <c r="V6">
+        <v>8.24</v>
+      </c>
+      <c r="W6">
+        <v>40</v>
+      </c>
+      <c r="X6">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -595,8 +777,59 @@
       <c r="H7">
         <v>0.447328</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>-0.17383000000000001</v>
+      </c>
+      <c r="J7">
+        <v>12.23</v>
+      </c>
+      <c r="K7">
+        <v>42</v>
+      </c>
+      <c r="L7">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O7">
+        <v>-0.18451500000000001</v>
+      </c>
+      <c r="P7">
+        <v>13.12</v>
+      </c>
+      <c r="Q7">
+        <v>41</v>
+      </c>
+      <c r="R7">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U7">
+        <v>-0.18387100000000001</v>
+      </c>
+      <c r="V7">
+        <v>12.97</v>
+      </c>
+      <c r="W7">
+        <v>41</v>
+      </c>
+      <c r="X7">
+        <v>22</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.5</v>
       </c>
@@ -621,8 +854,59 @@
       <c r="H8">
         <v>0.447328</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>-0.321189</v>
+      </c>
+      <c r="J8">
+        <v>23</v>
+      </c>
+      <c r="K8">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O8">
+        <v>-0.30520700000000001</v>
+      </c>
+      <c r="P8">
+        <v>22.29</v>
+      </c>
+      <c r="Q8">
+        <v>42</v>
+      </c>
+      <c r="R8">
+        <v>22</v>
+      </c>
+      <c r="S8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U8">
+        <v>-0.29185</v>
+      </c>
+      <c r="V8">
+        <v>20.96</v>
+      </c>
+      <c r="W8">
+        <v>41</v>
+      </c>
+      <c r="X8">
+        <v>27</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -647,8 +931,59 @@
       <c r="H9">
         <v>0.447328</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>-0.382081</v>
+      </c>
+      <c r="J9">
+        <v>27.49</v>
+      </c>
+      <c r="K9">
+        <v>41</v>
+      </c>
+      <c r="L9">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O9">
+        <v>-0.39960299999999999</v>
+      </c>
+      <c r="P9">
+        <v>29.52</v>
+      </c>
+      <c r="Q9">
+        <v>37</v>
+      </c>
+      <c r="R9">
+        <v>34</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U9">
+        <v>-0.41571999999999998</v>
+      </c>
+      <c r="V9">
+        <v>30.4</v>
+      </c>
+      <c r="W9">
+        <v>41</v>
+      </c>
+      <c r="X9">
+        <v>30</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -673,8 +1008,59 @@
       <c r="H10">
         <v>0.447328</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>-0.44647399999999998</v>
+      </c>
+      <c r="J10">
+        <v>440.66</v>
+      </c>
+      <c r="K10">
+        <v>56</v>
+      </c>
+      <c r="L10">
+        <v>117</v>
+      </c>
+      <c r="M10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O10">
+        <v>-0.44924900000000001</v>
+      </c>
+      <c r="P10">
+        <v>444.28</v>
+      </c>
+      <c r="Q10">
+        <v>55</v>
+      </c>
+      <c r="R10">
+        <v>116</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U10">
+        <v>-0.46005200000000002</v>
+      </c>
+      <c r="V10">
+        <v>393.17</v>
+      </c>
+      <c r="W10">
+        <v>50</v>
+      </c>
+      <c r="X10">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -699,8 +1085,59 @@
       <c r="H11">
         <v>0.447328</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>-0.446963</v>
+      </c>
+      <c r="J11">
+        <v>1013.78</v>
+      </c>
+      <c r="K11">
+        <v>87</v>
+      </c>
+      <c r="L11">
+        <v>225</v>
+      </c>
+      <c r="M11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O11">
+        <v>-0.44977800000000001</v>
+      </c>
+      <c r="P11">
+        <v>1152.5</v>
+      </c>
+      <c r="Q11">
+        <v>91</v>
+      </c>
+      <c r="R11">
+        <v>223</v>
+      </c>
+      <c r="S11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U11">
+        <v>-0.460669</v>
+      </c>
+      <c r="V11">
+        <v>1117.98</v>
+      </c>
+      <c r="W11">
+        <v>92</v>
+      </c>
+      <c r="X11">
+        <v>219</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25</v>
       </c>
@@ -725,8 +1162,59 @@
       <c r="H12">
         <v>0.447328</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>-0.44712600000000002</v>
+      </c>
+      <c r="J12">
+        <v>1794.89</v>
+      </c>
+      <c r="K12">
+        <v>134</v>
+      </c>
+      <c r="L12">
+        <v>337</v>
+      </c>
+      <c r="M12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O12">
+        <v>-0.44988800000000001</v>
+      </c>
+      <c r="P12">
+        <v>1774.93</v>
+      </c>
+      <c r="Q12">
+        <v>133</v>
+      </c>
+      <c r="R12">
+        <v>336</v>
+      </c>
+      <c r="S12" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U12">
+        <v>-0.46080100000000002</v>
+      </c>
+      <c r="V12">
+        <v>1739.74</v>
+      </c>
+      <c r="W12">
+        <v>135</v>
+      </c>
+      <c r="X12">
+        <v>331</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>30</v>
       </c>
@@ -751,8 +1239,59 @@
       <c r="H13">
         <v>0.447328</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>-0.447181</v>
+      </c>
+      <c r="J13">
+        <v>2497.6999999999998</v>
+      </c>
+      <c r="K13">
+        <v>180</v>
+      </c>
+      <c r="L13">
+        <v>454</v>
+      </c>
+      <c r="M13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O13">
+        <v>-0.44994699999999999</v>
+      </c>
+      <c r="P13">
+        <v>2532.11</v>
+      </c>
+      <c r="Q13">
+        <v>184</v>
+      </c>
+      <c r="R13">
+        <v>453</v>
+      </c>
+      <c r="S13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U13">
+        <v>-0.46087600000000001</v>
+      </c>
+      <c r="V13">
+        <v>2579.02</v>
+      </c>
+      <c r="W13">
+        <v>174</v>
+      </c>
+      <c r="X13">
+        <v>448</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>35</v>
       </c>
@@ -777,8 +1316,59 @@
       <c r="H14">
         <v>0.447328</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>-0.44722099999999998</v>
+      </c>
+      <c r="J14">
+        <v>3359.92</v>
+      </c>
+      <c r="K14">
+        <v>230</v>
+      </c>
+      <c r="L14">
+        <v>576</v>
+      </c>
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O14">
+        <v>-0.44999600000000001</v>
+      </c>
+      <c r="P14">
+        <v>3459.19</v>
+      </c>
+      <c r="Q14">
+        <v>228</v>
+      </c>
+      <c r="R14">
+        <v>574</v>
+      </c>
+      <c r="S14" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U14">
+        <v>-0.46090900000000001</v>
+      </c>
+      <c r="V14">
+        <v>3394.36</v>
+      </c>
+      <c r="W14">
+        <v>226</v>
+      </c>
+      <c r="X14">
+        <v>569</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>40</v>
       </c>
@@ -803,8 +1393,59 @@
       <c r="H15">
         <v>0.447328</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>-0.44723600000000002</v>
+      </c>
+      <c r="J15">
+        <v>4079.31</v>
+      </c>
+      <c r="K15">
+        <v>278</v>
+      </c>
+      <c r="L15">
+        <v>702</v>
+      </c>
+      <c r="M15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O15">
+        <v>-0.45001799999999997</v>
+      </c>
+      <c r="P15">
+        <v>4444.4799999999996</v>
+      </c>
+      <c r="Q15">
+        <v>281</v>
+      </c>
+      <c r="R15">
+        <v>700</v>
+      </c>
+      <c r="S15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U15">
+        <v>-0.46093200000000001</v>
+      </c>
+      <c r="V15">
+        <v>4178.67</v>
+      </c>
+      <c r="W15">
+        <v>272</v>
+      </c>
+      <c r="X15">
+        <v>695</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>45</v>
       </c>
@@ -829,8 +1470,59 @@
       <c r="H16">
         <v>0.447328</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>-0.44724999999999998</v>
+      </c>
+      <c r="J16">
+        <v>5033.92</v>
+      </c>
+      <c r="K16">
+        <v>336</v>
+      </c>
+      <c r="L16">
+        <v>832</v>
+      </c>
+      <c r="M16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O16">
+        <v>-0.45003300000000002</v>
+      </c>
+      <c r="P16">
+        <v>5456.41</v>
+      </c>
+      <c r="Q16">
+        <v>331</v>
+      </c>
+      <c r="R16">
+        <v>831</v>
+      </c>
+      <c r="S16" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U16">
+        <v>-0.460953</v>
+      </c>
+      <c r="V16">
+        <v>5149.24</v>
+      </c>
+      <c r="W16">
+        <v>331</v>
+      </c>
+      <c r="X16">
+        <v>825</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50</v>
       </c>
@@ -854,6 +1546,67 @@
       </c>
       <c r="H17">
         <v>0.447328</v>
+      </c>
+      <c r="I17">
+        <v>-0.447268</v>
+      </c>
+      <c r="J17">
+        <v>6119.39</v>
+      </c>
+      <c r="K17">
+        <v>387</v>
+      </c>
+      <c r="L17">
+        <v>967</v>
+      </c>
+      <c r="M17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>0.45010099999999997</v>
+      </c>
+      <c r="O17">
+        <v>-0.45004499999999997</v>
+      </c>
+      <c r="P17">
+        <v>6453.42</v>
+      </c>
+      <c r="Q17">
+        <v>391</v>
+      </c>
+      <c r="R17">
+        <v>966</v>
+      </c>
+      <c r="S17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17">
+        <v>0.46102500000000002</v>
+      </c>
+      <c r="U17">
+        <v>-0.46096300000000001</v>
+      </c>
+      <c r="V17">
+        <v>6221.16</v>
+      </c>
+      <c r="W17">
+        <v>389</v>
+      </c>
+      <c r="X17">
+        <v>960</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
